--- a/Keyword_Driven_Framework/Excercise1_Asignment1_Driven_Keyword_LinhVTT2/src/main/java/dataEngine/DataEngine.xlsx
+++ b/Keyword_Driven_Framework/Excercise1_Asignment1_Driven_Keyword_LinhVTT2/src/main/java/dataEngine/DataEngine.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="72">
   <si>
     <t>Description</t>
   </si>
@@ -755,7 +755,7 @@
         <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1031,7 +1031,7 @@
         <v>Selenium Framework Design in Data-Driven Testing: Build data-driven test frameworks using Selenium WebDriver, AppiumDriver, Java, and TestNG</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row ht="16" r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1050,7 +1050,9 @@
         <v>33</v>
       </c>
       <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
+      <c r="H11" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -1068,7 +1070,9 @@
         <v>5</v>
       </c>
       <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
